--- a/グループ開発課題管理表.xlsx
+++ b/グループ開発課題管理表.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujisawa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akasoo/Documents/GitHub/hair-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5FB6D4-C449-4ACA-BF12-EA85388E619B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{06E28A56-819A-44D5-9BE5-0C0B95D0B339}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="課題管理シート" sheetId="1" r:id="rId1"/>
     <sheet name="入力規則" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>グループ開発　課題管理表</t>
     <rPh sb="4" eb="6">
@@ -274,13 +279,82 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>募集掲示板投稿機能</t>
+    <rPh sb="8" eb="9">
+      <t>ノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集掲示板表示機能</t>
+    <rPh sb="8" eb="9">
+      <t>nou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集掲示板削除機能</t>
+    <rPh sb="0" eb="5">
+      <t>ボシュウケイジバン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>サクジョキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>募集掲示板検索機能</t>
+    <rPh sb="0" eb="9">
+      <t>ボシュウケイジバンケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットモデルリスト表示機能</t>
+    <rPh sb="9" eb="13">
+      <t>ヒョウジキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットモデル検索機能</t>
+    <rPh sb="6" eb="10">
+      <t>ケンサクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB構築</t>
+    <rPh sb="2" eb="4">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平田&amp;椎葉</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シイバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -341,136 +415,136 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,10 +591,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,33 +605,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -886,34 +960,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C6F46-46B2-4DC5-A42A-AC22C1303856}">
-  <dimension ref="B1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="6" max="6" width="49.875" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="67.875" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="18"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:11" ht="40" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1"/>
+      <c r="G1"/>
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2"/>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
@@ -977,430 +1058,540 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C5" s="12">
+        <v>43227</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43229</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="12">
+        <v>43230</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43234</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="12">
+        <v>43234</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43238</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="12">
+        <v>43238</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43242</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="12">
+        <v>43242</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43246</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>6</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="12">
+        <v>43246</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13">
+        <v>43250</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
+      <c r="C11" s="12">
+        <v>43250</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43253</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="7"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="7"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="7"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="7"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>16</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="7"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>17</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="7"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="7"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="7"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="7"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="7"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="7"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>23</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="7"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>24</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="7"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="7"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>26</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="7"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>27</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="7"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>28</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="7"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>29</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="7"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="8"/>
     </row>
-    <row r="34" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>30</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B4:K34">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B4:K35">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$J4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1409,17 +1600,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C06A1FA9-FA33-486F-BF91-491086D86AC7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>入力規則!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J34</xm:sqref>
+          <xm:sqref>J4:J35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E43C7BAC-7DF2-4E28-9558-3482C06D2941}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>入力規則!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E34</xm:sqref>
+          <xm:sqref>E4:E35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1428,16 +1619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A4800B-DB66-44A5-8483-E51B107BF35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1469,17 +1660,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
